--- a/data/trans_orig/COM_RAPIDA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/COM_RAPIDA-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Establecimientos de comida rápida en País Vasco</t>
+          <t>Establecimientos de comida rápida en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/COM_RAPIDA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/COM_RAPIDA-Estudios-trans_orig.xlsx
@@ -733,32 +733,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7138</t>
+          <t>5998</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5319</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9882</t>
+          <t>8351</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12533</t>
+          <t>10121</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9566</t>
+          <t>8054</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15710</t>
+          <t>13107</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -803,32 +803,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>19671</t>
+          <t>16119</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16282</t>
+          <t>13228</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>23435</t>
+          <t>19226</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>9,58%</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15829</t>
+          <t>11414</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12525</t>
+          <t>9165</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19203</t>
+          <t>14438</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -881,32 +881,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24144</t>
+          <t>17629</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20071</t>
+          <t>15011</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27936</t>
+          <t>20844</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>39973</t>
+          <t>29043</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>34884</t>
+          <t>25588</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>45315</t>
+          <t>33316</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>16,61%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32602</t>
+          <t>32649</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28352</t>
+          <t>28886</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36966</t>
+          <t>36812</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>39,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43973</t>
+          <t>45328</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>39658</t>
+          <t>40942</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>49055</t>
+          <t>49845</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,32 +1029,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>76575</t>
+          <t>77977</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>70510</t>
+          <t>72096</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>83349</t>
+          <t>84210</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>41,98%</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35628</t>
+          <t>32663</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31598</t>
+          <t>28910</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40438</t>
+          <t>36720</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>39,48%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>44,39%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47261</t>
+          <t>44812</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42306</t>
+          <t>40391</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52016</t>
+          <t>49096</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>41,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1142,32 +1142,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>82890</t>
+          <t>77475</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>76568</t>
+          <t>71754</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>89483</t>
+          <t>83527</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>38,62%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>41,64%</t>
         </is>
       </c>
     </row>
@@ -1185,17 +1185,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1220,17 +1220,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1255,17 +1255,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1302,32 +1302,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47235</t>
+          <t>44064</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41673</t>
+          <t>38442</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53455</t>
+          <t>49610</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1337,32 +1337,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>44193</t>
+          <t>41456</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39046</t>
+          <t>36802</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>49966</t>
+          <t>47923</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1372,32 +1372,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>91428</t>
+          <t>85520</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>83825</t>
+          <t>77791</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>99242</t>
+          <t>93263</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>10,17%</t>
         </is>
       </c>
     </row>
@@ -1415,32 +1415,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>77128</t>
+          <t>74632</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69880</t>
+          <t>67868</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84025</t>
+          <t>81720</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1450,32 +1450,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>71942</t>
+          <t>71421</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>64895</t>
+          <t>65165</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>79403</t>
+          <t>78684</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1485,32 +1485,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>149069</t>
+          <t>146053</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>139706</t>
+          <t>136244</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>158814</t>
+          <t>155911</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>17,0%</t>
         </is>
       </c>
     </row>
@@ -1528,32 +1528,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>169747</t>
+          <t>167291</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>160953</t>
+          <t>157847</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>179441</t>
+          <t>176121</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1563,32 +1563,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>159182</t>
+          <t>158634</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>150219</t>
+          <t>149711</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>168670</t>
+          <t>167654</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1598,32 +1598,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>328929</t>
+          <t>325925</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>316402</t>
+          <t>313880</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>342639</t>
+          <t>339955</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>37,07%</t>
         </is>
       </c>
     </row>
@@ -1641,32 +1641,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>169397</t>
+          <t>182227</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>159782</t>
+          <t>172932</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>178718</t>
+          <t>191895</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>38,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1676,32 +1676,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>164033</t>
+          <t>177413</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>155348</t>
+          <t>168577</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>173015</t>
+          <t>186169</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>39,52%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>41,47%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1711,32 +1711,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>333430</t>
+          <t>359639</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>320023</t>
+          <t>347573</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345678</t>
+          <t>372691</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>40,64%</t>
         </is>
       </c>
     </row>
@@ -1754,17 +1754,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1789,17 +1789,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1824,17 +1824,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1871,32 +1871,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11697</t>
+          <t>11383</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8744</t>
+          <t>8859</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14648</t>
+          <t>14660</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1906,32 +1906,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18384</t>
+          <t>19191</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>15287</t>
+          <t>15667</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>22331</t>
+          <t>22982</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1941,32 +1941,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>30080</t>
+          <t>30574</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>25751</t>
+          <t>25799</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>35641</t>
+          <t>35304</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -1984,32 +1984,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28322</t>
+          <t>30456</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24218</t>
+          <t>26189</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33281</t>
+          <t>35468</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2019,32 +2019,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35710</t>
+          <t>37909</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30791</t>
+          <t>32859</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>40705</t>
+          <t>42744</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2054,32 +2054,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>64032</t>
+          <t>68365</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>57631</t>
+          <t>62055</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>70647</t>
+          <t>76034</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>17,85%</t>
         </is>
       </c>
     </row>
@@ -2097,32 +2097,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>53404</t>
+          <t>62737</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>48374</t>
+          <t>56173</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>58442</t>
+          <t>68941</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>30,43%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2132,32 +2132,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>65516</t>
+          <t>79458</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>59802</t>
+          <t>71548</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>71360</t>
+          <t>85759</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>35,7%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2167,32 +2167,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>118920</t>
+          <t>142195</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>111231</t>
+          <t>133360</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>126733</t>
+          <t>151347</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>33,38%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>35,52%</t>
         </is>
       </c>
     </row>
@@ -2210,32 +2210,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>61832</t>
+          <t>80008</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56662</t>
+          <t>73773</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>67183</t>
+          <t>86917</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>47,09%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2245,32 +2245,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>80266</t>
+          <t>104897</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>74157</t>
+          <t>98187</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>86684</t>
+          <t>112811</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>43,44%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2280,32 +2280,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>142098</t>
+          <t>184906</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>134821</t>
+          <t>175258</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>150440</t>
+          <t>195010</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>40,01%</t>
+          <t>43,4%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>45,77%</t>
         </is>
       </c>
     </row>
@@ -2323,17 +2323,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2358,17 +2358,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2393,17 +2393,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2440,32 +2440,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>66070</t>
+          <t>61445</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59770</t>
+          <t>55552</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>73801</t>
+          <t>68158</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2475,32 +2475,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>75110</t>
+          <t>70768</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>68212</t>
+          <t>63856</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>82260</t>
+          <t>77777</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2510,32 +2510,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>141180</t>
+          <t>132214</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>131215</t>
+          <t>123534</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>150980</t>
+          <t>142060</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -2553,32 +2553,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>121279</t>
+          <t>116502</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>112637</t>
+          <t>107477</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>130599</t>
+          <t>124382</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2588,32 +2588,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>131795</t>
+          <t>126959</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>122755</t>
+          <t>119053</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>141452</t>
+          <t>136812</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2623,32 +2623,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>253075</t>
+          <t>243460</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>240938</t>
+          <t>231383</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>266983</t>
+          <t>255317</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>16,54%</t>
         </is>
       </c>
     </row>
@@ -2666,32 +2666,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>255753</t>
+          <t>262677</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>244697</t>
+          <t>251176</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>268561</t>
+          <t>274595</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2701,32 +2701,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>268672</t>
+          <t>283419</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>255938</t>
+          <t>271213</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>279968</t>
+          <t>295370</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2736,22 +2736,22 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>524424</t>
+          <t>546097</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>508184</t>
+          <t>531021</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>542312</t>
+          <t>563297</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>36,49%</t>
         </is>
       </c>
     </row>
@@ -2779,32 +2779,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>266857</t>
+          <t>294899</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>254526</t>
+          <t>281822</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>278563</t>
+          <t>306193</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>41,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2814,32 +2814,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>291561</t>
+          <t>327122</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>279511</t>
+          <t>314534</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>304250</t>
+          <t>339709</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>42,03%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2849,32 +2849,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>558418</t>
+          <t>622021</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>542044</t>
+          <t>605208</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>574001</t>
+          <t>638659</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>37,81%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>41,37%</t>
         </is>
       </c>
     </row>
@@ -2892,17 +2892,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2927,17 +2927,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2962,17 +2962,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
